--- a/Copy of Title and Closing Metric Doc Final 2016 CH.xlsx
+++ b/Copy of Title and Closing Metric Doc Final 2016 CH.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2umcc\Desktop\REO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7236" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="39280" yWindow="-12100" windowWidth="24700" windowHeight="17780" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Closing Metric (2)" sheetId="4" state="hidden" r:id="rId1"/>
@@ -32,8 +27,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Title Metric'!$1:$1</definedName>
     <definedName name="VendorName">[1]Vendor!$A$1:$A$177</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -2310,7 +2308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2371,6 +2369,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="60">
     <border>
@@ -2382,96 +2386,96 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2479,286 +2483,286 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2766,10 +2770,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2777,27 +2781,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2806,75 +2810,75 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2883,10 +2887,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2894,78 +2898,78 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2974,12 +2978,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2987,32 +2991,32 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -3020,27 +3024,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3048,7 +3052,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3056,78 +3060,78 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3136,7 +3140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -3779,6 +3783,60 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3827,59 +3885,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3900,7 +3913,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MTD draft"/>
@@ -4883,7 +4896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4918,7 +4931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5095,7 +5108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5103,10 +5116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C5" sqref="C5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
@@ -5114,22 +5127,22 @@
       <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="60" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="53" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="46.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5164,7 +5177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="229.5" hidden="1" customHeight="1">
       <c r="A2" s="231" t="s">
         <v>40</v>
       </c>
@@ -5187,7 +5200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="29" hidden="1" thickBot="1">
       <c r="A3" s="232"/>
       <c r="B3" s="18" t="s">
         <v>45</v>
@@ -5206,7 +5219,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" ht="227.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="227.25" hidden="1" customHeight="1">
       <c r="A4" s="231" t="s">
         <v>48</v>
       </c>
@@ -5229,7 +5242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28" hidden="1">
       <c r="A5" s="233"/>
       <c r="B5" s="25" t="s">
         <v>53</v>
@@ -5248,7 +5261,7 @@
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="29" hidden="1" thickBot="1">
       <c r="A6" s="234"/>
       <c r="B6" s="29" t="s">
         <v>56</v>
@@ -5267,7 +5280,7 @@
       </c>
       <c r="K6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="234" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="234" hidden="1" customHeight="1">
       <c r="A7" s="231" t="s">
         <v>59</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="29" hidden="1" thickBot="1">
       <c r="A8" s="232"/>
       <c r="B8" s="68" t="s">
         <v>63</v>
@@ -5309,7 +5322,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="113" thickBot="1">
       <c r="A9" s="235" t="s">
         <v>65</v>
       </c>
@@ -5334,7 +5347,7 @@
       <c r="J9" s="89"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="216" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="222" thickBot="1">
       <c r="A10" s="236"/>
       <c r="B10" s="90" t="s">
         <v>190</v>
@@ -5363,7 +5376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="57.75" customHeight="1" thickBot="1">
       <c r="A11" s="88" t="s">
         <v>192</v>
       </c>
@@ -5390,7 +5403,7 @@
       <c r="J11" s="91"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="75.75" customHeight="1">
       <c r="A12" s="226" t="s">
         <v>72</v>
       </c>
@@ -5417,7 +5430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="29" thickBot="1">
       <c r="A13" s="227"/>
       <c r="B13" s="25" t="s">
         <v>193</v>
@@ -5446,7 +5459,7 @@
       </c>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="28">
       <c r="A14" s="237" t="s">
         <v>79</v>
       </c>
@@ -5469,7 +5482,7 @@
       </c>
       <c r="K14" s="43"/>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="28">
       <c r="A15" s="233"/>
       <c r="B15" s="25" t="s">
         <v>82</v>
@@ -5490,7 +5503,7 @@
       </c>
       <c r="K15" s="46"/>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="28">
       <c r="A16" s="233"/>
       <c r="B16" s="25" t="s">
         <v>84</v>
@@ -5511,7 +5524,7 @@
       </c>
       <c r="K16" s="46"/>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="233"/>
       <c r="B17" s="25" t="s">
         <v>86</v>
@@ -5532,7 +5545,7 @@
       </c>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="28">
       <c r="A18" s="233"/>
       <c r="B18" s="25" t="s">
         <v>88</v>
@@ -5553,7 +5566,7 @@
       </c>
       <c r="K18" s="46"/>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="28">
       <c r="A19" s="233"/>
       <c r="B19" s="25" t="s">
         <v>90</v>
@@ -5574,7 +5587,7 @@
       </c>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="28">
       <c r="A20" s="233"/>
       <c r="B20" s="25" t="s">
         <v>92</v>
@@ -5595,7 +5608,7 @@
       </c>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="29" thickBot="1">
       <c r="A21" s="234"/>
       <c r="B21" s="29" t="s">
         <v>94</v>
@@ -5616,7 +5629,7 @@
       </c>
       <c r="K21" s="47"/>
     </row>
-    <row r="22" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="144">
       <c r="A22" s="224" t="s">
         <v>96</v>
       </c>
@@ -5639,7 +5652,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="43" thickBot="1">
       <c r="A23" s="225"/>
       <c r="B23" s="18" t="s">
         <v>77</v>
@@ -5666,7 +5679,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" ht="123.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="133">
       <c r="A24" s="226" t="s">
         <v>100</v>
       </c>
@@ -5689,7 +5702,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="127" thickBot="1">
       <c r="A25" s="227"/>
       <c r="B25" s="25" t="s">
         <v>77</v>
@@ -5714,7 +5727,7 @@
       </c>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="89">
       <c r="A26" s="226" t="s">
         <v>104</v>
       </c>
@@ -5739,7 +5752,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="43" thickBot="1">
       <c r="A27" s="227"/>
       <c r="B27" s="18" t="s">
         <v>77</v>
@@ -5764,7 +5777,7 @@
       </c>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="123.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="133">
       <c r="A28" s="83" t="s">
         <v>110</v>
       </c>
@@ -5789,7 +5802,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="228" t="s">
         <v>113</v>
       </c>
@@ -5806,7 +5819,7 @@
       <c r="J29" s="53"/>
       <c r="K29" s="54"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="229"/>
       <c r="B30" s="18" t="s">
         <v>115</v>
@@ -5821,7 +5834,7 @@
       <c r="J30" s="21"/>
       <c r="K30" s="51"/>
     </row>
-    <row r="31" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A31" s="230"/>
       <c r="B31" s="48" t="s">
         <v>116</v>
@@ -5836,7 +5849,7 @@
       <c r="J31" s="49"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="30.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="55" t="s">
         <v>117</v>
       </c>
@@ -5853,7 +5866,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6">
       <c r="F33" s="84">
         <f>SUM(F2:F32)</f>
         <v>1.1000000000000001</v>
@@ -5880,44 +5893,49 @@
     <mergeCell ref="A14:A21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="17" scale="56" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="93" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="93" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" style="93" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="93" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="95" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="95" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="93" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="93" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="93" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="93" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="93" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="95" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="95" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="93" customWidth="1"/>
     <col min="8" max="8" width="28" style="93" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" style="93" customWidth="1"/>
-    <col min="10" max="10" width="44.88671875" style="93" customWidth="1"/>
-    <col min="11" max="11" width="56.5546875" style="202" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" style="93" customWidth="1"/>
+    <col min="10" max="10" width="44.83203125" style="93" customWidth="1"/>
+    <col min="11" max="11" width="56.5" style="202" customWidth="1"/>
     <col min="12" max="12" width="48.33203125" style="95" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="56.5546875" style="202" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="93"/>
+    <col min="13" max="13" width="56.5" style="202" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -5958,7 +5976,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="112.5" customHeight="1" thickBot="1">
       <c r="A2" s="243" t="s">
         <v>164</v>
       </c>
@@ -5999,7 +6017,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="103.5" customHeight="1" thickBot="1">
       <c r="A3" s="244"/>
       <c r="B3" s="108" t="s">
         <v>119</v>
@@ -6034,7 +6052,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="98.25" customHeight="1" thickBot="1">
       <c r="A4" s="243" t="s">
         <v>163</v>
       </c>
@@ -6075,7 +6093,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="112.5" customHeight="1" thickBot="1">
       <c r="A5" s="244"/>
       <c r="B5" s="115" t="s">
         <v>157</v>
@@ -6110,7 +6128,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="107.25" customHeight="1" thickBot="1">
       <c r="A6" s="117" t="s">
         <v>162</v>
       </c>
@@ -6151,11 +6169,11 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="85" thickBot="1">
       <c r="A7" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="280" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="119" t="s">
@@ -6192,7 +6210,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="85" thickBot="1">
       <c r="A8" s="125" t="s">
         <v>154</v>
       </c>
@@ -6233,11 +6251,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="93" customHeight="1" thickBot="1">
       <c r="A9" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="280" t="s">
         <v>160</v>
       </c>
       <c r="C9" s="119" t="s">
@@ -6274,7 +6292,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="60" customHeight="1">
       <c r="A10" s="240" t="s">
         <v>11</v>
       </c>
@@ -6311,7 +6329,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="75.75" customHeight="1">
       <c r="A11" s="241"/>
       <c r="B11" s="132" t="s">
         <v>12</v>
@@ -6346,7 +6364,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="59.25" customHeight="1" thickBot="1">
       <c r="A12" s="242"/>
       <c r="B12" s="138" t="s">
         <v>153</v>
@@ -6383,7 +6401,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="50.25" customHeight="1" thickBot="1">
       <c r="A13" s="240" t="s">
         <v>169</v>
       </c>
@@ -6420,7 +6438,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="71.25" customHeight="1" thickBot="1">
       <c r="A14" s="242"/>
       <c r="B14" s="138" t="s">
         <v>170</v>
@@ -6453,11 +6471,11 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="55.5" customHeight="1" thickBot="1">
       <c r="A15" s="240" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="281" t="s">
         <v>180</v>
       </c>
       <c r="C15" s="139" t="s">
@@ -6490,7 +6508,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="85.5" customHeight="1" thickBot="1">
       <c r="A16" s="242" t="s">
         <v>177</v>
       </c>
@@ -6525,7 +6543,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="60" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="60" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="238" t="s">
         <v>178</v>
       </c>
@@ -6546,7 +6564,7 @@
       <c r="L17" s="94"/>
       <c r="M17" s="205"/>
     </row>
-    <row r="18" spans="1:13" ht="85.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="85.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="239"/>
       <c r="B18" s="142" t="s">
         <v>178</v>
@@ -6575,13 +6593,18 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="17" scale="59" orientation="landscape"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="16" max="11" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="17" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6593,13 +6616,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
     <col min="4" max="4" width="99.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4">
       <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
@@ -6607,7 +6630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4">
       <c r="C3" s="62" t="s">
         <v>122</v>
       </c>
@@ -6615,7 +6638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4">
       <c r="C4" s="63" t="s">
         <v>119</v>
       </c>
@@ -6623,7 +6646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4">
       <c r="C5" s="63" t="s">
         <v>123</v>
       </c>
@@ -6631,7 +6654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4">
       <c r="C6" s="63" t="s">
         <v>124</v>
       </c>
@@ -6639,7 +6662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4">
       <c r="C7" s="63" t="s">
         <v>125</v>
       </c>
@@ -6647,7 +6670,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4">
       <c r="C8" s="63" t="s">
         <v>126</v>
       </c>
@@ -6655,7 +6678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4">
       <c r="C9" s="63" t="s">
         <v>127</v>
       </c>
@@ -6663,7 +6686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4">
       <c r="C10" s="63" t="s">
         <v>128</v>
       </c>
@@ -6671,98 +6694,103 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4">
       <c r="C12" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4">
       <c r="C13" s="62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4">
       <c r="C14" s="63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4">
       <c r="C15" s="63" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4">
       <c r="C16" s="63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3">
       <c r="C17" s="63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3">
       <c r="C18" s="63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3">
       <c r="C19" s="63" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3">
       <c r="C20" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3">
       <c r="C21" s="62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3">
       <c r="C22" s="63" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C5" sqref="C5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" style="93" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52" style="95" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="95" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="95" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="95" customWidth="1"/>
     <col min="6" max="6" width="23" style="95" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="95" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.5546875" style="95" customWidth="1"/>
-    <col min="9" max="9" width="52.109375" style="95" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.5" style="95" customWidth="1"/>
+    <col min="9" max="9" width="52.1640625" style="95" customWidth="1"/>
     <col min="10" max="10" width="46.33203125" style="93" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="52.109375" style="95" customWidth="1"/>
+    <col min="11" max="11" width="52.1640625" style="95" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6797,7 +6825,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="112">
       <c r="A2" s="235" t="s">
         <v>65</v>
       </c>
@@ -6830,7 +6858,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="141" customHeight="1">
       <c r="A3" s="236"/>
       <c r="B3" s="199" t="s">
         <v>190</v>
@@ -6863,7 +6891,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="114.75" customHeight="1">
       <c r="A4" s="245" t="s">
         <v>192</v>
       </c>
@@ -6896,7 +6924,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="65.25" customHeight="1">
       <c r="A5" s="227" t="s">
         <v>194</v>
       </c>
@@ -6929,11 +6957,11 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="42">
       <c r="A6" s="227" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="282" t="s">
         <v>382</v>
       </c>
       <c r="C6" s="195" t="s">
@@ -6962,11 +6990,11 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="84">
       <c r="A7" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="282" t="s">
         <v>197</v>
       </c>
       <c r="C7" s="195" t="s">
@@ -6997,7 +7025,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="58.5" customHeight="1">
       <c r="A8" s="86" t="s">
         <v>100</v>
       </c>
@@ -7030,7 +7058,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="86.25" customHeight="1">
       <c r="A9" s="86"/>
       <c r="B9" s="199" t="s">
         <v>199</v>
@@ -7061,7 +7089,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="58.5" customHeight="1">
       <c r="A10" s="86"/>
       <c r="B10" s="199" t="s">
         <v>283</v>
@@ -7092,7 +7120,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="78" customHeight="1">
       <c r="A11" s="86"/>
       <c r="B11" s="199" t="s">
         <v>200</v>
@@ -7123,7 +7151,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="57" customHeight="1">
       <c r="A12" s="87"/>
       <c r="B12" s="199" t="s">
         <v>278</v>
@@ -7154,7 +7182,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="57" customHeight="1">
       <c r="A13" s="87"/>
       <c r="B13" s="199" t="s">
         <v>280</v>
@@ -7185,7 +7213,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="57" customHeight="1">
       <c r="A14" s="86"/>
       <c r="B14" s="199" t="s">
         <v>201</v>
@@ -7216,7 +7244,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="97.5" customHeight="1">
       <c r="A15" s="86"/>
       <c r="B15" s="199" t="s">
         <v>202</v>
@@ -7247,7 +7275,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="81" customHeight="1">
       <c r="A16" s="217"/>
       <c r="B16" s="194" t="s">
         <v>293</v>
@@ -7278,7 +7306,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="97.5" customHeight="1">
       <c r="A17" s="217"/>
       <c r="B17" s="194" t="s">
         <v>292</v>
@@ -7309,7 +7337,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="97.5" customHeight="1">
       <c r="A18" s="87"/>
       <c r="B18" s="199" t="s">
         <v>281</v>
@@ -7340,7 +7368,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="66.75" customHeight="1">
       <c r="A19" s="228" t="s">
         <v>113</v>
       </c>
@@ -7373,7 +7401,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="78" customHeight="1">
       <c r="A20" s="229"/>
       <c r="B20" s="194" t="s">
         <v>204</v>
@@ -7404,7 +7432,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="43" thickBot="1">
       <c r="A21" s="230"/>
       <c r="B21" s="194" t="s">
         <v>205</v>
@@ -7435,11 +7463,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="76.5" customHeight="1" thickBot="1">
       <c r="A22" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="282" t="s">
         <v>279</v>
       </c>
       <c r="C22" s="195" t="s">
@@ -7468,47 +7496,47 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="B23" s="222" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="B24" s="222" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="B25" s="222" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="B26" s="219" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="B27" s="219" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="B28" s="219" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="B29" s="219" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="B30" s="219" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="B31" s="219" t="s">
         <v>338</v>
       </c>
@@ -7531,45 +7559,50 @@
     <hyperlink ref="G8" r:id="rId2" display="https://v5ws.equator.com/index.cfm?event=event.viewDeliverableData&amp;property_id=13624098&amp;eventTrackingID=345719021&amp;lender_id=1617&amp;oldEventTrackingID=328140486"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="55" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="17" scale="55" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="143" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="5.33203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="5.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
     <col min="17" max="17" width="5.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" customWidth="1"/>
     <col min="19" max="19" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:21" ht="15" thickBot="1"/>
+    <row r="2" spans="2:21" ht="19" thickBot="1">
       <c r="B2" s="144" t="s">
         <v>220</v>
       </c>
@@ -7588,40 +7621,40 @@
       <c r="O2" s="146"/>
       <c r="P2" s="147"/>
     </row>
-    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" ht="15" thickBot="1">
       <c r="B3" s="148" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="249">
+      <c r="D3" s="267">
         <v>1</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="251">
+      <c r="E3" s="268"/>
+      <c r="F3" s="269">
         <v>0.95</v>
       </c>
-      <c r="G3" s="252"/>
-      <c r="H3" s="251">
+      <c r="G3" s="270"/>
+      <c r="H3" s="269">
         <v>0.9</v>
       </c>
-      <c r="I3" s="252"/>
-      <c r="J3" s="253">
+      <c r="I3" s="270"/>
+      <c r="J3" s="271">
         <v>0.85</v>
       </c>
-      <c r="K3" s="254"/>
-      <c r="L3" s="253">
+      <c r="K3" s="272"/>
+      <c r="L3" s="271">
         <v>0.8</v>
       </c>
-      <c r="M3" s="254"/>
-      <c r="N3" s="253">
+      <c r="M3" s="272"/>
+      <c r="N3" s="271">
         <v>0</v>
       </c>
-      <c r="O3" s="255"/>
-      <c r="P3" s="254"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O3" s="273"/>
+      <c r="P3" s="272"/>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" s="150" t="s">
         <v>222</v>
       </c>
@@ -7658,13 +7691,13 @@
       <c r="M4" s="153">
         <v>83</v>
       </c>
-      <c r="N4" s="256" t="s">
+      <c r="N4" s="274" t="s">
         <v>224</v>
       </c>
-      <c r="O4" s="257"/>
-      <c r="P4" s="258"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O4" s="275"/>
+      <c r="P4" s="276"/>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="154" t="s">
         <v>225</v>
       </c>
@@ -7701,13 +7734,13 @@
       <c r="M5" s="153">
         <v>52</v>
       </c>
-      <c r="N5" s="256" t="s">
+      <c r="N5" s="274" t="s">
         <v>226</v>
       </c>
-      <c r="O5" s="257"/>
-      <c r="P5" s="258"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O5" s="275"/>
+      <c r="P5" s="276"/>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="154" t="s">
         <v>227</v>
       </c>
@@ -7744,13 +7777,13 @@
       <c r="M6" s="157">
         <v>0.3</v>
       </c>
-      <c r="N6" s="259" t="s">
+      <c r="N6" s="277" t="s">
         <v>228</v>
       </c>
-      <c r="O6" s="260"/>
-      <c r="P6" s="261"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O6" s="278"/>
+      <c r="P6" s="279"/>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="154" t="s">
         <v>229</v>
       </c>
@@ -7787,13 +7820,13 @@
       <c r="M7" s="157">
         <v>0.27</v>
       </c>
-      <c r="N7" s="259" t="s">
+      <c r="N7" s="277" t="s">
         <v>230</v>
       </c>
-      <c r="O7" s="260"/>
-      <c r="P7" s="261"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O7" s="278"/>
+      <c r="P7" s="279"/>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="154" t="s">
         <v>231</v>
       </c>
@@ -7830,13 +7863,13 @@
       <c r="M8" s="157">
         <v>0.18</v>
       </c>
-      <c r="N8" s="259" t="s">
+      <c r="N8" s="277" t="s">
         <v>232</v>
       </c>
-      <c r="O8" s="260"/>
-      <c r="P8" s="261"/>
-    </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="278"/>
+      <c r="P8" s="279"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="B9" s="154" t="s">
         <v>233</v>
       </c>
@@ -7857,13 +7890,13 @@
       <c r="K9" s="161"/>
       <c r="L9" s="160"/>
       <c r="M9" s="161"/>
-      <c r="N9" s="246" t="s">
+      <c r="N9" s="264" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="247"/>
-      <c r="P9" s="248"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O9" s="265"/>
+      <c r="P9" s="266"/>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="154" t="s">
         <v>235</v>
       </c>
@@ -7886,7 +7919,7 @@
       <c r="O10" s="162"/>
       <c r="P10" s="164"/>
     </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" ht="15" thickBot="1">
       <c r="B11" s="165" t="s">
         <v>237</v>
       </c>
@@ -7909,7 +7942,7 @@
       <c r="O11" s="167"/>
       <c r="P11" s="159"/>
     </row>
-    <row r="12" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="15" thickBot="1">
       <c r="B12" s="168"/>
       <c r="C12" s="169"/>
       <c r="D12" s="163"/>
@@ -7923,7 +7956,7 @@
       <c r="L12" s="163"/>
       <c r="M12" s="163"/>
     </row>
-    <row r="13" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:21" ht="19" thickBot="1">
       <c r="B13" s="144" t="s">
         <v>40</v>
       </c>
@@ -7947,61 +7980,61 @@
       <c r="T13" s="171"/>
       <c r="U13" s="172"/>
     </row>
-    <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" ht="15" thickBot="1">
       <c r="B14" s="173" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="174" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="264">
+      <c r="D14" s="263">
         <v>100</v>
       </c>
-      <c r="E14" s="264"/>
-      <c r="F14" s="265">
+      <c r="E14" s="263"/>
+      <c r="F14" s="258">
         <v>90</v>
       </c>
-      <c r="G14" s="266"/>
-      <c r="H14" s="265">
+      <c r="G14" s="259"/>
+      <c r="H14" s="258">
         <v>80</v>
       </c>
-      <c r="I14" s="266"/>
-      <c r="J14" s="265">
+      <c r="I14" s="259"/>
+      <c r="J14" s="258">
         <v>70</v>
       </c>
-      <c r="K14" s="266"/>
-      <c r="L14" s="265">
+      <c r="K14" s="259"/>
+      <c r="L14" s="258">
         <v>60</v>
       </c>
-      <c r="M14" s="266"/>
-      <c r="N14" s="265">
+      <c r="M14" s="259"/>
+      <c r="N14" s="258">
         <v>50</v>
       </c>
-      <c r="O14" s="266"/>
-      <c r="P14" s="265">
+      <c r="O14" s="259"/>
+      <c r="P14" s="258">
         <v>40</v>
       </c>
-      <c r="Q14" s="266"/>
-      <c r="R14" s="265">
+      <c r="Q14" s="259"/>
+      <c r="R14" s="258">
         <v>20</v>
       </c>
-      <c r="S14" s="266"/>
-      <c r="T14" s="265">
+      <c r="S14" s="259"/>
+      <c r="T14" s="258">
         <v>0</v>
       </c>
-      <c r="U14" s="267"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U14" s="260"/>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="175" t="s">
         <v>238</v>
       </c>
       <c r="C15" s="176">
         <v>50</v>
       </c>
-      <c r="D15" s="268" t="s">
+      <c r="D15" s="261" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="269"/>
+      <c r="E15" s="262"/>
       <c r="F15" s="177">
         <v>0.99</v>
       </c>
@@ -8038,8 +8071,8 @@
       <c r="Q15" s="177">
         <v>0.4</v>
       </c>
-      <c r="R15" s="268"/>
-      <c r="S15" s="269"/>
+      <c r="R15" s="261"/>
+      <c r="S15" s="262"/>
       <c r="T15" s="178">
         <v>0.39</v>
       </c>
@@ -8047,89 +8080,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21">
       <c r="B16" s="180" t="s">
         <v>240</v>
       </c>
       <c r="C16" s="181">
         <v>20</v>
       </c>
-      <c r="D16" s="262" t="s">
+      <c r="D16" s="255" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="263"/>
-      <c r="F16" s="262" t="s">
+      <c r="E16" s="256"/>
+      <c r="F16" s="255" t="s">
         <v>242</v>
       </c>
-      <c r="G16" s="263"/>
-      <c r="H16" s="262" t="s">
+      <c r="G16" s="256"/>
+      <c r="H16" s="255" t="s">
         <v>243</v>
       </c>
-      <c r="I16" s="263"/>
-      <c r="J16" s="262" t="s">
+      <c r="I16" s="256"/>
+      <c r="J16" s="255" t="s">
         <v>244</v>
       </c>
-      <c r="K16" s="263"/>
-      <c r="L16" s="262" t="s">
+      <c r="K16" s="256"/>
+      <c r="L16" s="255" t="s">
         <v>245</v>
       </c>
-      <c r="M16" s="263"/>
-      <c r="N16" s="262" t="s">
+      <c r="M16" s="256"/>
+      <c r="N16" s="255" t="s">
         <v>246</v>
       </c>
-      <c r="O16" s="263"/>
-      <c r="P16" s="262"/>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="262"/>
-      <c r="S16" s="263"/>
-      <c r="T16" s="262" t="s">
+      <c r="O16" s="256"/>
+      <c r="P16" s="255"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="255"/>
+      <c r="S16" s="256"/>
+      <c r="T16" s="255" t="s">
         <v>247</v>
       </c>
-      <c r="U16" s="273"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U16" s="257"/>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="180" t="s">
         <v>248</v>
       </c>
       <c r="C17" s="181">
         <v>10</v>
       </c>
-      <c r="D17" s="270" t="s">
+      <c r="D17" s="248" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="271"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="270"/>
-      <c r="I17" s="271"/>
-      <c r="J17" s="270"/>
-      <c r="K17" s="271"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="270" t="s">
+      <c r="E17" s="254"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="248" t="s">
         <v>250</v>
       </c>
-      <c r="O17" s="271"/>
-      <c r="P17" s="270"/>
-      <c r="Q17" s="271"/>
-      <c r="R17" s="270"/>
-      <c r="S17" s="271"/>
-      <c r="T17" s="270" t="s">
+      <c r="O17" s="254"/>
+      <c r="P17" s="248"/>
+      <c r="Q17" s="254"/>
+      <c r="R17" s="248"/>
+      <c r="S17" s="254"/>
+      <c r="T17" s="248" t="s">
         <v>251</v>
       </c>
-      <c r="U17" s="272"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="249"/>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="180" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="181">
         <v>5</v>
       </c>
-      <c r="D18" s="270" t="s">
+      <c r="D18" s="248" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="271"/>
+      <c r="E18" s="254"/>
       <c r="F18" s="182"/>
       <c r="G18" s="183"/>
       <c r="H18" s="182"/>
@@ -8144,22 +8177,22 @@
       <c r="Q18" s="183"/>
       <c r="R18" s="182"/>
       <c r="S18" s="183"/>
-      <c r="T18" s="270" t="s">
+      <c r="T18" s="248" t="s">
         <v>253</v>
       </c>
-      <c r="U18" s="272"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="249"/>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="180" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="181">
         <v>5</v>
       </c>
-      <c r="D19" s="270" t="s">
+      <c r="D19" s="248" t="s">
         <v>254</v>
       </c>
-      <c r="E19" s="271"/>
+      <c r="E19" s="254"/>
       <c r="F19" s="182"/>
       <c r="G19" s="183"/>
       <c r="H19" s="182"/>
@@ -8174,22 +8207,22 @@
       <c r="Q19" s="183"/>
       <c r="R19" s="182"/>
       <c r="S19" s="183"/>
-      <c r="T19" s="270" t="s">
+      <c r="T19" s="248" t="s">
         <v>255</v>
       </c>
-      <c r="U19" s="272"/>
-    </row>
-    <row r="20" spans="2:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="249"/>
+    </row>
+    <row r="20" spans="2:21" ht="52.5" customHeight="1">
       <c r="B20" s="180" t="s">
         <v>256</v>
       </c>
       <c r="C20" s="181">
         <v>5</v>
       </c>
-      <c r="D20" s="274" t="s">
+      <c r="D20" s="246" t="s">
         <v>383</v>
       </c>
-      <c r="E20" s="275"/>
+      <c r="E20" s="247"/>
       <c r="F20" s="182"/>
       <c r="G20" s="183"/>
       <c r="H20" s="182"/>
@@ -8204,22 +8237,22 @@
       <c r="Q20" s="183"/>
       <c r="R20" s="182"/>
       <c r="S20" s="183"/>
-      <c r="T20" s="270" t="s">
+      <c r="T20" s="248" t="s">
         <v>257</v>
       </c>
-      <c r="U20" s="272"/>
-    </row>
-    <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U20" s="249"/>
+    </row>
+    <row r="21" spans="2:21" ht="15" thickBot="1">
       <c r="B21" s="184" t="s">
         <v>258</v>
       </c>
       <c r="C21" s="185">
         <v>5</v>
       </c>
-      <c r="D21" s="276" t="s">
+      <c r="D21" s="250" t="s">
         <v>259</v>
       </c>
-      <c r="E21" s="277"/>
+      <c r="E21" s="251"/>
       <c r="F21" s="186"/>
       <c r="G21" s="187"/>
       <c r="H21" s="186"/>
@@ -8234,36 +8267,36 @@
       <c r="Q21" s="188"/>
       <c r="R21" s="186"/>
       <c r="S21" s="188"/>
-      <c r="T21" s="276" t="s">
+      <c r="T21" s="250" t="s">
         <v>260</v>
       </c>
-      <c r="U21" s="278"/>
-    </row>
-    <row r="22" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="279" t="s">
+      <c r="U21" s="252"/>
+    </row>
+    <row r="22" spans="2:21" ht="15" customHeight="1">
+      <c r="B22" s="253" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="279"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
-      <c r="J22" s="279"/>
-      <c r="K22" s="279"/>
-      <c r="L22" s="279"/>
-      <c r="M22" s="279"/>
-      <c r="N22" s="279"/>
-      <c r="O22" s="279"/>
-      <c r="P22" s="279"/>
-      <c r="Q22" s="279"/>
-      <c r="R22" s="279"/>
-      <c r="S22" s="279"/>
-      <c r="T22" s="279"/>
-      <c r="U22" s="279"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C22" s="253"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="253"/>
+      <c r="N22" s="253"/>
+      <c r="O22" s="253"/>
+      <c r="P22" s="253"/>
+      <c r="Q22" s="253"/>
+      <c r="R22" s="253"/>
+      <c r="S22" s="253"/>
+      <c r="T22" s="253"/>
+      <c r="U22" s="253"/>
+    </row>
+    <row r="23" spans="2:21">
       <c r="D23" s="143"/>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
@@ -8283,7 +8316,7 @@
       <c r="T23" s="143"/>
       <c r="U23" s="143"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21">
       <c r="D24" s="143"/>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
@@ -8303,7 +8336,7 @@
       <c r="T24" s="143"/>
       <c r="U24" s="143"/>
     </row>
-    <row r="25" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" hidden="1">
       <c r="D25" s="143"/>
       <c r="E25" s="143"/>
       <c r="F25" s="143"/>
@@ -8323,7 +8356,7 @@
       <c r="T25" s="143"/>
       <c r="U25" s="143"/>
     </row>
-    <row r="26" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" hidden="1">
       <c r="B26" s="189" t="s">
         <v>262</v>
       </c>
@@ -8346,7 +8379,7 @@
       <c r="T26" s="143"/>
       <c r="U26" s="143"/>
     </row>
-    <row r="27" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" hidden="1">
       <c r="B27" s="189" t="s">
         <v>263</v>
       </c>
@@ -8369,7 +8402,7 @@
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
     </row>
-    <row r="28" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" hidden="1">
       <c r="B28" s="189" t="s">
         <v>264</v>
       </c>
@@ -8392,7 +8425,7 @@
       <c r="T28" s="143"/>
       <c r="U28" s="143"/>
     </row>
-    <row r="29" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" hidden="1">
       <c r="B29" s="189" t="s">
         <v>265</v>
       </c>
@@ -8415,7 +8448,7 @@
       <c r="T29" s="143"/>
       <c r="U29" s="143"/>
     </row>
-    <row r="30" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" hidden="1">
       <c r="B30" s="189" t="s">
         <v>266</v>
       </c>
@@ -8438,7 +8471,7 @@
       <c r="T30" s="143"/>
       <c r="U30" s="143"/>
     </row>
-    <row r="31" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" hidden="1">
       <c r="B31" s="189" t="s">
         <v>267</v>
       </c>
@@ -8461,19 +8494,33 @@
       <c r="T31" s="143"/>
       <c r="U31" s="143"/>
     </row>
-    <row r="32" spans="2:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:21" hidden="1"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="B22:U22"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="N16:O16"/>
@@ -8490,33 +8537,24 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="B22:U22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="57" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
